--- a/biology/Zoologie/Courlis_de_Sibérie/Courlis_de_Sibérie.xlsx
+++ b/biology/Zoologie/Courlis_de_Sibérie/Courlis_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Courlis_de_Sib%C3%A9rie</t>
+          <t>Courlis_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Numenius madagascariensis
 Le Courlis de Sibérie (Numenius madagascariensis) est un grand oiseau de rivage très semblable d'aspect au Courlis à long bec, mais légèrement plus grand. D'une couleur surtout marron, il se distingue des autres courlis par sa couleur également marron, simple et sans motifs sous les ailes. De tous les  oiseaux de rivage c'est lui qui a le bec le plus long.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Courlis_de_Sib%C3%A9rie</t>
+          <t>Courlis_de_Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Far Eastern Curlew » (voir la liste des auteurs).</t>
         </is>
